--- a/data/csv/mercado/atividades_relacionadas/NECCULT - 2018 - ATLAS - Eixo 2 - Síntese V13.xlsx
+++ b/data/csv/mercado/atividades_relacionadas/NECCULT - 2018 - ATLAS - Eixo 2 - Síntese V13.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Documents\Sínteses Atlas\Eixo 2 - Ocupacional - Atividades Relacionadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Google Drive\Atlas\Dados\Sínteses para download\Eixo 2 - Ocupacional - Ativ. Relacionadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de Tabelas" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>IHH</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tabela 1 - Evolução do Índice de Concentração IHH do Total de Rendimentos das Atividades Relacionadas por UF entre 2007 e 2014</t>
+    <t>V10 - IHH (Índice Herfindal-Hirschman de concentração) da Massa de Rendimentos do Trabalho</t>
   </si>
   <si>
-    <t>V10 - IHH (Índice Herfindal-Hirschman de concentração) da Massa de Rendimentos do Trabalho</t>
+    <t xml:space="preserve"> Tabela 1 - Evolução do Índice de Concentração IHH do Total de Rendimentos das Atividades Relacionadas por UF entre 2007 e 2015</t>
   </si>
 </sst>
 </file>
@@ -389,15 +389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -442,15 +442,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -476,19 +476,19 @@
         <v>2009</v>
       </c>
       <c r="E2" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F2" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G2" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H2" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="I2" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -496,25 +496,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17212598020669909</v>
+        <v>0.18384039004020575</v>
       </c>
       <c r="C3" s="2">
-        <v>0.14877784724893187</v>
+        <v>0.18013115688323908</v>
       </c>
       <c r="D3" s="2">
-        <v>0.14404388216066255</v>
+        <v>0.1647299461193342</v>
       </c>
       <c r="E3" s="2">
-        <v>0.14436026784393785</v>
+        <v>0.18345567381763003</v>
       </c>
       <c r="F3" s="2">
-        <v>0.15540212534679118</v>
+        <v>0.17255709871391384</v>
       </c>
       <c r="G3" s="2">
-        <v>0.15266340752200677</v>
+        <v>0.16852289273509774</v>
       </c>
       <c r="H3" s="2">
-        <v>0.17133688252348694</v>
+        <v>0.17838328167136369</v>
       </c>
       <c r="I3" s="2">
         <v>0.17042321055268089</v>
